--- a/results.xlsx
+++ b/results.xlsx
@@ -100,13 +100,13 @@
     <t>MNIST</t>
   </si>
   <si>
-    <t>[0.04, 275]</t>
+    <t>[0.04, 150]</t>
   </si>
   <si>
     <t>MINIST- SWA</t>
   </si>
   <si>
-    <t>[0.04, 350]</t>
+    <t>[0.04, 225]</t>
   </si>
   <si>
     <t>MINIST- improved</t>
@@ -118,13 +118,13 @@
     <t>USPS</t>
   </si>
   <si>
-    <t>[0.07, 250]</t>
+    <t>[0.07, 225]</t>
   </si>
   <si>
     <t>USPS- SWA</t>
   </si>
   <si>
-    <t>[0.07, 350]</t>
+    <t>[0.07, 337]</t>
   </si>
   <si>
     <t>USPS- improved</t>
@@ -142,7 +142,7 @@
     <t>EMNIST - SWA</t>
   </si>
   <si>
-    <t>[0.02, 265]</t>
+    <t>[0.02, 262]</t>
   </si>
   <si>
     <t>EMNIST - improved</t>
@@ -190,13 +190,13 @@
     <t>STL10</t>
   </si>
   <si>
-    <t>[0.05, 250]</t>
+    <t>[0.05, 150]</t>
   </si>
   <si>
     <t>STL10 - SWA</t>
   </si>
   <si>
-    <t>[0.05, 350]</t>
+    <t>[0.05, 225]</t>
   </si>
   <si>
     <t>-</t>
